--- a/excel/djokovic_features_3shots_predict_next_djokovic_shot.xlsx
+++ b/excel/djokovic_features_3shots_predict_next_djokovic_shot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:U116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1957 +543,1957 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>rally1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.51</v>
+        <v>2.64</v>
       </c>
       <c r="C2" t="n">
-        <v>21.83</v>
+        <v>19.94</v>
       </c>
       <c r="D2" t="n">
-        <v>4.7</v>
+        <v>4.05</v>
       </c>
       <c r="E2" t="n">
-        <v>8.609999999999999</v>
+        <v>11.87</v>
       </c>
       <c r="F2" t="n">
-        <v>0.51</v>
+        <v>2.36</v>
       </c>
       <c r="G2" t="n">
-        <v>21.83</v>
+        <v>20.26</v>
       </c>
       <c r="H2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I2" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K2" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="N2" t="n">
         <v>1.49</v>
       </c>
-      <c r="I2" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="M2" t="n">
-        <v>21.83</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.46</v>
-      </c>
       <c r="O2" t="n">
-        <v>15.36</v>
+        <v>16.62</v>
       </c>
       <c r="P2" t="n">
-        <v>4.7</v>
+        <v>4.05</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.609999999999999</v>
+        <v>11.87</v>
       </c>
       <c r="R2" t="n">
-        <v>0.51</v>
+        <v>2.36</v>
       </c>
       <c r="S2" t="n">
-        <v>21.83</v>
+        <v>20.26</v>
       </c>
       <c r="T2" t="n">
-        <v>0.51</v>
+        <v>2.36</v>
       </c>
       <c r="U2" t="n">
-        <v>21.83</v>
+        <v>20.26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>rally2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.51</v>
+        <v>2.64</v>
       </c>
       <c r="C3" t="n">
-        <v>21.17</v>
+        <v>21.44</v>
       </c>
       <c r="D3" t="n">
-        <v>4.43</v>
+        <v>5.17</v>
       </c>
       <c r="E3" t="n">
-        <v>11.24</v>
+        <v>10.52</v>
       </c>
       <c r="F3" t="n">
-        <v>2.64</v>
+        <v>2.36</v>
       </c>
       <c r="G3" t="n">
-        <v>23.74</v>
+        <v>21.56</v>
       </c>
       <c r="H3" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I3" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M3" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="N3" t="n">
         <v>1.49</v>
       </c>
-      <c r="I3" t="n">
-        <v>20.08</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="M3" t="n">
-        <v>23.74</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.46</v>
-      </c>
       <c r="O3" t="n">
-        <v>14.83</v>
+        <v>17.52</v>
       </c>
       <c r="P3" t="n">
-        <v>4.43</v>
+        <v>5.17</v>
       </c>
       <c r="Q3" t="n">
-        <v>11.24</v>
+        <v>10.52</v>
       </c>
       <c r="R3" t="n">
-        <v>2.64</v>
+        <v>2.36</v>
       </c>
       <c r="S3" t="n">
-        <v>23.74</v>
+        <v>21.56</v>
       </c>
       <c r="T3" t="n">
-        <v>2.64</v>
+        <v>2.36</v>
       </c>
       <c r="U3" t="n">
-        <v>23.74</v>
+        <v>21.56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>rally3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.64</v>
+        <v>0.51</v>
       </c>
       <c r="C4" t="n">
-        <v>21.68</v>
+        <v>21.59</v>
       </c>
       <c r="D4" t="n">
-        <v>4.78</v>
+        <v>3.16</v>
       </c>
       <c r="E4" t="n">
-        <v>11.3</v>
+        <v>11.69</v>
       </c>
       <c r="F4" t="n">
-        <v>2.64</v>
+        <v>0.51</v>
       </c>
       <c r="G4" t="n">
-        <v>21.68</v>
+        <v>21.93</v>
       </c>
       <c r="H4" t="n">
-        <v>0.51</v>
+        <v>1.49</v>
       </c>
       <c r="I4" t="n">
-        <v>18.97</v>
+        <v>20.51</v>
       </c>
       <c r="J4" t="n">
-        <v>4.78</v>
+        <v>3.16</v>
       </c>
       <c r="K4" t="n">
-        <v>11.3</v>
+        <v>11.69</v>
       </c>
       <c r="L4" t="n">
-        <v>2.64</v>
+        <v>0.51</v>
       </c>
       <c r="M4" t="n">
-        <v>21.68</v>
+        <v>21.93</v>
       </c>
       <c r="N4" t="n">
-        <v>1.49</v>
+        <v>4.46</v>
       </c>
       <c r="O4" t="n">
-        <v>17.96</v>
+        <v>15.25</v>
       </c>
       <c r="P4" t="n">
-        <v>4.78</v>
+        <v>3.16</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.3</v>
+        <v>11.69</v>
       </c>
       <c r="R4" t="n">
-        <v>2.64</v>
+        <v>0.51</v>
       </c>
       <c r="S4" t="n">
-        <v>21.68</v>
+        <v>21.93</v>
       </c>
       <c r="T4" t="n">
-        <v>2.64</v>
+        <v>0.51</v>
       </c>
       <c r="U4" t="n">
-        <v>21.68</v>
+        <v>21.93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>rally4</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0.51</v>
       </c>
       <c r="C5" t="n">
-        <v>21.97</v>
+        <v>21.53</v>
       </c>
       <c r="D5" t="n">
-        <v>5.1</v>
+        <v>4.34</v>
       </c>
       <c r="E5" t="n">
-        <v>11.88</v>
+        <v>11.22</v>
       </c>
       <c r="F5" t="n">
         <v>0.51</v>
       </c>
       <c r="G5" t="n">
-        <v>21.94</v>
+        <v>21.42</v>
       </c>
       <c r="H5" t="n">
         <v>1.49</v>
       </c>
       <c r="I5" t="n">
-        <v>20.97</v>
+        <v>20.48</v>
       </c>
       <c r="J5" t="n">
-        <v>5.1</v>
+        <v>4.34</v>
       </c>
       <c r="K5" t="n">
-        <v>11.88</v>
+        <v>11.22</v>
       </c>
       <c r="L5" t="n">
         <v>0.51</v>
       </c>
       <c r="M5" t="n">
-        <v>21.94</v>
+        <v>21.42</v>
       </c>
       <c r="N5" t="n">
         <v>4.46</v>
       </c>
       <c r="O5" t="n">
-        <v>16.09</v>
+        <v>15.42</v>
       </c>
       <c r="P5" t="n">
-        <v>5.1</v>
+        <v>4.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>11.88</v>
+        <v>11.22</v>
       </c>
       <c r="R5" t="n">
         <v>0.51</v>
       </c>
       <c r="S5" t="n">
-        <v>21.94</v>
+        <v>21.42</v>
       </c>
       <c r="T5" t="n">
         <v>0.51</v>
       </c>
       <c r="U5" t="n">
-        <v>21.94</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>rally5</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0.51</v>
       </c>
       <c r="C6" t="n">
-        <v>21.97</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11.72</v>
-      </c>
+        <v>21.58</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>0.51</v>
+        <v>0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>22.02</v>
+        <v>21.34</v>
       </c>
       <c r="H6" t="n">
         <v>1.49</v>
       </c>
       <c r="I6" t="n">
-        <v>20.97</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11.72</v>
-      </c>
+        <v>20.46</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>0.51</v>
+        <v>0.2</v>
       </c>
       <c r="M6" t="n">
-        <v>22.02</v>
+        <v>21.34</v>
       </c>
       <c r="N6" t="n">
         <v>4.46</v>
       </c>
       <c r="O6" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>11.72</v>
-      </c>
+        <v>15.06</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0.51</v>
+        <v>0.2</v>
       </c>
       <c r="S6" t="n">
-        <v>22.02</v>
+        <v>21.34</v>
       </c>
       <c r="T6" t="n">
-        <v>0.51</v>
+        <v>0.2</v>
       </c>
       <c r="U6" t="n">
-        <v>22.02</v>
+        <v>21.34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>rally6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.64</v>
+        <v>0.51</v>
       </c>
       <c r="C7" t="n">
-        <v>21.49</v>
+        <v>21.46</v>
       </c>
       <c r="D7" t="n">
-        <v>1.03</v>
+        <v>4.46</v>
       </c>
       <c r="E7" t="n">
-        <v>0.77</v>
+        <v>11.08</v>
       </c>
       <c r="F7" t="n">
-        <v>2.64</v>
+        <v>0.51</v>
       </c>
       <c r="G7" t="n">
-        <v>21.53</v>
+        <v>21.57</v>
       </c>
       <c r="H7" t="n">
-        <v>0.51</v>
+        <v>1.49</v>
       </c>
       <c r="I7" t="n">
-        <v>18.83</v>
+        <v>20.38</v>
       </c>
       <c r="J7" t="n">
-        <v>1.03</v>
+        <v>4.46</v>
       </c>
       <c r="K7" t="n">
-        <v>0.77</v>
+        <v>11.08</v>
       </c>
       <c r="L7" t="n">
-        <v>2.64</v>
+        <v>0.51</v>
       </c>
       <c r="M7" t="n">
-        <v>21.53</v>
+        <v>21.57</v>
       </c>
       <c r="N7" t="n">
-        <v>1.49</v>
+        <v>4.46</v>
       </c>
       <c r="O7" t="n">
-        <v>17.84</v>
+        <v>15.2</v>
       </c>
       <c r="P7" t="n">
-        <v>1.03</v>
+        <v>4.46</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.77</v>
+        <v>11.08</v>
       </c>
       <c r="R7" t="n">
-        <v>2.64</v>
+        <v>0.51</v>
       </c>
       <c r="S7" t="n">
-        <v>21.53</v>
+        <v>21.57</v>
       </c>
       <c r="T7" t="n">
-        <v>2.64</v>
+        <v>0.51</v>
       </c>
       <c r="U7" t="n">
-        <v>21.53</v>
+        <v>21.57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>R7</t>
+          <t>rally7</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0.51</v>
       </c>
       <c r="C8" t="n">
-        <v>21.78</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.86</v>
-      </c>
+        <v>21.86</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>0.51</v>
+        <v>0.19</v>
       </c>
       <c r="G8" t="n">
-        <v>22.24</v>
+        <v>21.89</v>
       </c>
       <c r="H8" t="n">
         <v>1.49</v>
       </c>
       <c r="I8" t="n">
-        <v>20.79</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.86</v>
-      </c>
+        <v>20.74</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>0.51</v>
+        <v>0.19</v>
       </c>
       <c r="M8" t="n">
-        <v>22.24</v>
+        <v>21.89</v>
       </c>
       <c r="N8" t="n">
         <v>4.46</v>
       </c>
       <c r="O8" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.86</v>
-      </c>
+        <v>15.32</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>0.51</v>
+        <v>0.19</v>
       </c>
       <c r="S8" t="n">
-        <v>22.24</v>
+        <v>21.89</v>
       </c>
       <c r="T8" t="n">
-        <v>0.51</v>
+        <v>0.19</v>
       </c>
       <c r="U8" t="n">
-        <v>22.24</v>
+        <v>21.89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>R8</t>
+          <t>rally8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.51</v>
+        <v>7.4</v>
       </c>
       <c r="C9" t="n">
-        <v>21.89</v>
+        <v>23.74</v>
       </c>
       <c r="D9" t="n">
-        <v>1.02</v>
+        <v>7.23</v>
       </c>
       <c r="E9" t="n">
-        <v>0.36</v>
+        <v>3.34</v>
       </c>
       <c r="F9" t="n">
-        <v>0.51</v>
+        <v>7.23</v>
       </c>
       <c r="G9" t="n">
-        <v>21.82</v>
+        <v>23.64</v>
       </c>
       <c r="H9" t="n">
-        <v>1.49</v>
+        <v>7.23</v>
       </c>
       <c r="I9" t="n">
-        <v>20.87</v>
+        <v>21.13</v>
       </c>
       <c r="J9" t="n">
-        <v>1.02</v>
+        <v>7.23</v>
       </c>
       <c r="K9" t="n">
-        <v>0.36</v>
+        <v>3.34</v>
       </c>
       <c r="L9" t="n">
-        <v>0.51</v>
+        <v>7.23</v>
       </c>
       <c r="M9" t="n">
-        <v>21.82</v>
+        <v>23.64</v>
       </c>
       <c r="N9" t="n">
         <v>4.46</v>
       </c>
       <c r="O9" t="n">
-        <v>15.93</v>
+        <v>18.25</v>
       </c>
       <c r="P9" t="n">
-        <v>1.02</v>
+        <v>7.23</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.36</v>
+        <v>3.34</v>
       </c>
       <c r="R9" t="n">
-        <v>0.51</v>
+        <v>7.23</v>
       </c>
       <c r="S9" t="n">
-        <v>21.82</v>
+        <v>23.64</v>
       </c>
       <c r="T9" t="n">
-        <v>0.51</v>
+        <v>7.23</v>
       </c>
       <c r="U9" t="n">
-        <v>21.82</v>
+        <v>23.64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>rally9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.51</v>
+        <v>7.4</v>
       </c>
       <c r="C10" t="n">
-        <v>21.82</v>
+        <v>23.72</v>
       </c>
       <c r="D10" t="n">
-        <v>1.02</v>
+        <v>7.23</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9</v>
+        <v>1.58</v>
       </c>
       <c r="F10" t="n">
-        <v>0.51</v>
+        <v>7.4</v>
       </c>
       <c r="G10" t="n">
-        <v>21.95</v>
+        <v>23.66</v>
       </c>
       <c r="H10" t="n">
-        <v>1.49</v>
+        <v>7.23</v>
       </c>
       <c r="I10" t="n">
-        <v>20.83</v>
+        <v>20.88</v>
       </c>
       <c r="J10" t="n">
-        <v>1.02</v>
+        <v>7.23</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9</v>
+        <v>1.58</v>
       </c>
       <c r="L10" t="n">
-        <v>0.51</v>
+        <v>7.4</v>
       </c>
       <c r="M10" t="n">
-        <v>21.95</v>
+        <v>23.66</v>
       </c>
       <c r="N10" t="n">
         <v>4.46</v>
       </c>
       <c r="O10" t="n">
-        <v>16.04</v>
+        <v>17.76</v>
       </c>
       <c r="P10" t="n">
-        <v>1.02</v>
+        <v>7.23</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9</v>
+        <v>1.58</v>
       </c>
       <c r="R10" t="n">
-        <v>0.51</v>
+        <v>7.4</v>
       </c>
       <c r="S10" t="n">
-        <v>21.95</v>
+        <v>23.66</v>
       </c>
       <c r="T10" t="n">
-        <v>0.51</v>
+        <v>7.4</v>
       </c>
       <c r="U10" t="n">
-        <v>21.95</v>
+        <v>23.66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>rally10</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0.51</v>
       </c>
       <c r="C11" t="n">
-        <v>22.4</v>
+        <v>21.83</v>
       </c>
       <c r="D11" t="n">
-        <v>4.93</v>
+        <v>4.7</v>
       </c>
       <c r="E11" t="n">
-        <v>11.52</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="F11" t="n">
         <v>0.51</v>
       </c>
       <c r="G11" t="n">
-        <v>21.95</v>
+        <v>21.83</v>
       </c>
       <c r="H11" t="n">
         <v>1.49</v>
       </c>
       <c r="I11" t="n">
-        <v>21.38</v>
+        <v>20.72</v>
       </c>
       <c r="J11" t="n">
-        <v>4.93</v>
+        <v>4.7</v>
       </c>
       <c r="K11" t="n">
-        <v>11.52</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="L11" t="n">
         <v>0.51</v>
       </c>
       <c r="M11" t="n">
-        <v>21.95</v>
+        <v>21.83</v>
       </c>
       <c r="N11" t="n">
         <v>4.46</v>
       </c>
       <c r="O11" t="n">
-        <v>16.43</v>
+        <v>15.36</v>
       </c>
       <c r="P11" t="n">
-        <v>4.93</v>
+        <v>4.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.52</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="R11" t="n">
         <v>0.51</v>
       </c>
       <c r="S11" t="n">
-        <v>21.95</v>
+        <v>21.83</v>
       </c>
       <c r="T11" t="n">
         <v>0.51</v>
       </c>
       <c r="U11" t="n">
-        <v>21.95</v>
+        <v>21.83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>R11</t>
+          <t>rally11</t>
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C12" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="F12" t="n">
         <v>2.64</v>
       </c>
-      <c r="C12" t="n">
-        <v>19.94</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="E12" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.36</v>
-      </c>
       <c r="G12" t="n">
-        <v>20.26</v>
+        <v>23.74</v>
       </c>
       <c r="H12" t="n">
-        <v>0.51</v>
+        <v>1.49</v>
       </c>
       <c r="I12" t="n">
-        <v>17.53</v>
+        <v>20.08</v>
       </c>
       <c r="J12" t="n">
-        <v>4.05</v>
+        <v>4.43</v>
       </c>
       <c r="K12" t="n">
-        <v>11.87</v>
+        <v>11.24</v>
       </c>
       <c r="L12" t="n">
-        <v>2.36</v>
+        <v>2.64</v>
       </c>
       <c r="M12" t="n">
-        <v>20.26</v>
+        <v>23.74</v>
       </c>
       <c r="N12" t="n">
-        <v>1.49</v>
+        <v>4.46</v>
       </c>
       <c r="O12" t="n">
-        <v>16.62</v>
+        <v>14.83</v>
       </c>
       <c r="P12" t="n">
-        <v>4.05</v>
+        <v>4.43</v>
       </c>
       <c r="Q12" t="n">
-        <v>11.87</v>
+        <v>11.24</v>
       </c>
       <c r="R12" t="n">
-        <v>2.36</v>
+        <v>2.64</v>
       </c>
       <c r="S12" t="n">
-        <v>20.26</v>
+        <v>23.74</v>
       </c>
       <c r="T12" t="n">
-        <v>2.36</v>
+        <v>2.64</v>
       </c>
       <c r="U12" t="n">
-        <v>20.26</v>
+        <v>23.74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>rally12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.51</v>
+        <v>2.64</v>
       </c>
       <c r="C13" t="n">
-        <v>22.14</v>
+        <v>21.68</v>
       </c>
       <c r="D13" t="n">
-        <v>4.93</v>
+        <v>4.78</v>
       </c>
       <c r="E13" t="n">
-        <v>11.67</v>
+        <v>11.3</v>
       </c>
       <c r="F13" t="n">
-        <v>0.51</v>
+        <v>2.64</v>
       </c>
       <c r="G13" t="n">
-        <v>21.61</v>
+        <v>21.68</v>
       </c>
       <c r="H13" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I13" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="K13" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M13" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="N13" t="n">
         <v>1.49</v>
       </c>
-      <c r="I13" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="K13" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="M13" t="n">
-        <v>21.61</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.46</v>
-      </c>
       <c r="O13" t="n">
-        <v>16.25</v>
+        <v>17.96</v>
       </c>
       <c r="P13" t="n">
-        <v>4.93</v>
+        <v>4.78</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.67</v>
+        <v>11.3</v>
       </c>
       <c r="R13" t="n">
-        <v>0.51</v>
+        <v>2.64</v>
       </c>
       <c r="S13" t="n">
-        <v>21.61</v>
+        <v>21.68</v>
       </c>
       <c r="T13" t="n">
-        <v>0.51</v>
+        <v>2.64</v>
       </c>
       <c r="U13" t="n">
-        <v>21.61</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>R13</t>
+          <t>rally13</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0.51</v>
       </c>
       <c r="C14" t="n">
-        <v>22.07</v>
+        <v>21.97</v>
       </c>
       <c r="D14" t="n">
-        <v>4.87</v>
+        <v>5.1</v>
       </c>
       <c r="E14" t="n">
-        <v>10.35</v>
+        <v>11.88</v>
       </c>
       <c r="F14" t="n">
         <v>0.51</v>
       </c>
       <c r="G14" t="n">
-        <v>21.77</v>
+        <v>21.94</v>
       </c>
       <c r="H14" t="n">
         <v>1.49</v>
       </c>
       <c r="I14" t="n">
-        <v>21.07</v>
+        <v>20.97</v>
       </c>
       <c r="J14" t="n">
-        <v>4.87</v>
+        <v>5.1</v>
       </c>
       <c r="K14" t="n">
-        <v>10.35</v>
+        <v>11.88</v>
       </c>
       <c r="L14" t="n">
         <v>0.51</v>
       </c>
       <c r="M14" t="n">
-        <v>21.77</v>
+        <v>21.94</v>
       </c>
       <c r="N14" t="n">
         <v>4.46</v>
       </c>
       <c r="O14" t="n">
-        <v>16.19</v>
+        <v>16.09</v>
       </c>
       <c r="P14" t="n">
-        <v>4.87</v>
+        <v>5.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>10.35</v>
+        <v>11.88</v>
       </c>
       <c r="R14" t="n">
         <v>0.51</v>
       </c>
       <c r="S14" t="n">
-        <v>21.77</v>
+        <v>21.94</v>
       </c>
       <c r="T14" t="n">
         <v>0.51</v>
       </c>
       <c r="U14" t="n">
-        <v>21.77</v>
+        <v>21.94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>R14</t>
+          <t>rally14</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0.51</v>
       </c>
       <c r="C15" t="n">
-        <v>21.91</v>
+        <v>21.97</v>
       </c>
       <c r="D15" t="n">
-        <v>1.02</v>
+        <v>4.14</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7</v>
+        <v>11.72</v>
       </c>
       <c r="F15" t="n">
         <v>0.51</v>
       </c>
       <c r="G15" t="n">
-        <v>21.94</v>
+        <v>22.02</v>
       </c>
       <c r="H15" t="n">
         <v>1.49</v>
       </c>
       <c r="I15" t="n">
-        <v>20.9</v>
+        <v>20.97</v>
       </c>
       <c r="J15" t="n">
-        <v>1.02</v>
+        <v>4.14</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7</v>
+        <v>11.72</v>
       </c>
       <c r="L15" t="n">
         <v>0.51</v>
       </c>
       <c r="M15" t="n">
-        <v>21.94</v>
+        <v>22.02</v>
       </c>
       <c r="N15" t="n">
         <v>4.46</v>
       </c>
       <c r="O15" t="n">
-        <v>16.06</v>
+        <v>16.14</v>
       </c>
       <c r="P15" t="n">
-        <v>1.02</v>
+        <v>4.14</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7</v>
+        <v>11.72</v>
       </c>
       <c r="R15" t="n">
         <v>0.51</v>
       </c>
       <c r="S15" t="n">
-        <v>21.94</v>
+        <v>22.02</v>
       </c>
       <c r="T15" t="n">
         <v>0.51</v>
       </c>
       <c r="U15" t="n">
-        <v>21.94</v>
+        <v>22.02</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>R15</t>
+          <t>rally15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.51</v>
+        <v>2.64</v>
       </c>
       <c r="C16" t="n">
-        <v>21.88</v>
+        <v>21.49</v>
       </c>
       <c r="D16" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E16" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="F16" t="n">
-        <v>0.51</v>
+        <v>2.64</v>
       </c>
       <c r="G16" t="n">
-        <v>22</v>
+        <v>21.53</v>
       </c>
       <c r="H16" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I16" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M16" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="N16" t="n">
         <v>1.49</v>
       </c>
-      <c r="I16" t="n">
-        <v>20.88</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="M16" t="n">
-        <v>22</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4.46</v>
-      </c>
       <c r="O16" t="n">
-        <v>16.05</v>
+        <v>17.84</v>
       </c>
       <c r="P16" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="R16" t="n">
-        <v>0.51</v>
+        <v>2.64</v>
       </c>
       <c r="S16" t="n">
-        <v>22</v>
+        <v>21.53</v>
       </c>
       <c r="T16" t="n">
-        <v>0.51</v>
+        <v>2.64</v>
       </c>
       <c r="U16" t="n">
-        <v>22</v>
+        <v>21.53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>R16</t>
+          <t>rally16</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0.51</v>
       </c>
       <c r="C17" t="n">
-        <v>21.75</v>
+        <v>21.78</v>
       </c>
       <c r="D17" t="n">
-        <v>5.3</v>
+        <v>1.02</v>
       </c>
       <c r="E17" t="n">
-        <v>11.61</v>
+        <v>0.86</v>
       </c>
       <c r="F17" t="n">
         <v>0.51</v>
       </c>
       <c r="G17" t="n">
-        <v>21.6</v>
+        <v>22.24</v>
       </c>
       <c r="H17" t="n">
         <v>1.49</v>
       </c>
       <c r="I17" t="n">
-        <v>20.76</v>
+        <v>20.79</v>
       </c>
       <c r="J17" t="n">
-        <v>5.3</v>
+        <v>1.02</v>
       </c>
       <c r="K17" t="n">
-        <v>11.61</v>
+        <v>0.86</v>
       </c>
       <c r="L17" t="n">
         <v>0.51</v>
       </c>
       <c r="M17" t="n">
-        <v>21.6</v>
+        <v>22.24</v>
       </c>
       <c r="N17" t="n">
-        <v>4.29</v>
+        <v>4.46</v>
       </c>
       <c r="O17" t="n">
-        <v>15.95</v>
+        <v>16.01</v>
       </c>
       <c r="P17" t="n">
-        <v>5.3</v>
+        <v>1.02</v>
       </c>
       <c r="Q17" t="n">
-        <v>11.61</v>
+        <v>0.86</v>
       </c>
       <c r="R17" t="n">
         <v>0.51</v>
       </c>
       <c r="S17" t="n">
-        <v>21.6</v>
+        <v>22.24</v>
       </c>
       <c r="T17" t="n">
         <v>0.51</v>
       </c>
       <c r="U17" t="n">
-        <v>21.6</v>
+        <v>22.24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>R17</t>
+          <t>rally17</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0.51</v>
       </c>
       <c r="C18" t="n">
-        <v>21.57</v>
+        <v>21.89</v>
       </c>
       <c r="D18" t="n">
         <v>1.02</v>
       </c>
       <c r="E18" t="n">
-        <v>0.66</v>
+        <v>0.36</v>
       </c>
       <c r="F18" t="n">
         <v>0.51</v>
       </c>
       <c r="G18" t="n">
-        <v>21.8</v>
+        <v>21.82</v>
       </c>
       <c r="H18" t="n">
         <v>1.49</v>
       </c>
       <c r="I18" t="n">
-        <v>20.58</v>
+        <v>20.87</v>
       </c>
       <c r="J18" t="n">
         <v>1.02</v>
       </c>
       <c r="K18" t="n">
-        <v>0.66</v>
+        <v>0.36</v>
       </c>
       <c r="L18" t="n">
         <v>0.51</v>
       </c>
       <c r="M18" t="n">
-        <v>21.8</v>
+        <v>21.82</v>
       </c>
       <c r="N18" t="n">
-        <v>4.29</v>
+        <v>4.46</v>
       </c>
       <c r="O18" t="n">
-        <v>15.78</v>
+        <v>15.93</v>
       </c>
       <c r="P18" t="n">
         <v>1.02</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.66</v>
+        <v>0.36</v>
       </c>
       <c r="R18" t="n">
         <v>0.51</v>
       </c>
       <c r="S18" t="n">
-        <v>21.8</v>
+        <v>21.82</v>
       </c>
       <c r="T18" t="n">
         <v>0.51</v>
       </c>
       <c r="U18" t="n">
-        <v>21.8</v>
+        <v>21.82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>R18</t>
+          <t>rally18</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0.51</v>
       </c>
       <c r="C19" t="n">
-        <v>21.73</v>
+        <v>21.82</v>
       </c>
       <c r="D19" t="n">
         <v>1.02</v>
       </c>
       <c r="E19" t="n">
-        <v>0.68</v>
+        <v>0.9</v>
       </c>
       <c r="F19" t="n">
         <v>0.51</v>
       </c>
       <c r="G19" t="n">
-        <v>22.12</v>
+        <v>21.95</v>
       </c>
       <c r="H19" t="n">
         <v>1.49</v>
       </c>
       <c r="I19" t="n">
-        <v>20.7</v>
+        <v>20.83</v>
       </c>
       <c r="J19" t="n">
         <v>1.02</v>
       </c>
       <c r="K19" t="n">
-        <v>0.68</v>
+        <v>0.9</v>
       </c>
       <c r="L19" t="n">
         <v>0.51</v>
       </c>
       <c r="M19" t="n">
-        <v>22.12</v>
+        <v>21.95</v>
       </c>
       <c r="N19" t="n">
-        <v>4.29</v>
+        <v>4.46</v>
       </c>
       <c r="O19" t="n">
-        <v>15.73</v>
+        <v>16.04</v>
       </c>
       <c r="P19" t="n">
         <v>1.02</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.68</v>
+        <v>0.9</v>
       </c>
       <c r="R19" t="n">
         <v>0.51</v>
       </c>
       <c r="S19" t="n">
-        <v>22.12</v>
+        <v>21.95</v>
       </c>
       <c r="T19" t="n">
         <v>0.51</v>
       </c>
       <c r="U19" t="n">
-        <v>22.12</v>
+        <v>21.95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R19</t>
+          <t>rally19</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0.51</v>
       </c>
       <c r="C20" t="n">
-        <v>21.57</v>
+        <v>22.4</v>
       </c>
       <c r="D20" t="n">
-        <v>4.42</v>
+        <v>4.93</v>
       </c>
       <c r="E20" t="n">
-        <v>11.38</v>
+        <v>11.52</v>
       </c>
       <c r="F20" t="n">
         <v>0.51</v>
       </c>
       <c r="G20" t="n">
-        <v>21.89</v>
+        <v>21.95</v>
       </c>
       <c r="H20" t="n">
         <v>1.49</v>
       </c>
       <c r="I20" t="n">
-        <v>20.48</v>
+        <v>21.38</v>
       </c>
       <c r="J20" t="n">
-        <v>4.42</v>
+        <v>4.93</v>
       </c>
       <c r="K20" t="n">
-        <v>11.38</v>
+        <v>11.52</v>
       </c>
       <c r="L20" t="n">
         <v>0.51</v>
       </c>
       <c r="M20" t="n">
-        <v>21.89</v>
+        <v>21.95</v>
       </c>
       <c r="N20" t="n">
         <v>4.46</v>
       </c>
       <c r="O20" t="n">
-        <v>15.21</v>
+        <v>16.43</v>
       </c>
       <c r="P20" t="n">
-        <v>4.42</v>
+        <v>4.93</v>
       </c>
       <c r="Q20" t="n">
-        <v>11.38</v>
+        <v>11.52</v>
       </c>
       <c r="R20" t="n">
         <v>0.51</v>
       </c>
       <c r="S20" t="n">
-        <v>21.89</v>
+        <v>21.95</v>
       </c>
       <c r="T20" t="n">
         <v>0.51</v>
       </c>
       <c r="U20" t="n">
-        <v>21.89</v>
+        <v>21.95</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>R20</t>
+          <t>rally20</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0.51</v>
       </c>
       <c r="C21" t="n">
-        <v>21.84</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+        <v>22.14</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="E21" t="n">
+        <v>11.67</v>
+      </c>
       <c r="F21" t="n">
         <v>0.51</v>
       </c>
       <c r="G21" t="n">
-        <v>21.73</v>
+        <v>21.61</v>
       </c>
       <c r="H21" t="n">
         <v>1.49</v>
       </c>
       <c r="I21" t="n">
-        <v>20.76</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>21.13</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="K21" t="n">
+        <v>11.67</v>
+      </c>
       <c r="L21" t="n">
         <v>0.51</v>
       </c>
       <c r="M21" t="n">
-        <v>21.73</v>
+        <v>21.61</v>
       </c>
       <c r="N21" t="n">
         <v>4.46</v>
       </c>
       <c r="O21" t="n">
-        <v>15.56</v>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
+        <v>16.25</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>11.67</v>
+      </c>
       <c r="R21" t="n">
         <v>0.51</v>
       </c>
       <c r="S21" t="n">
-        <v>21.73</v>
+        <v>21.61</v>
       </c>
       <c r="T21" t="n">
         <v>0.51</v>
       </c>
       <c r="U21" t="n">
-        <v>21.73</v>
+        <v>21.61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>R21</t>
+          <t>rally21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.23</v>
+        <v>0.51</v>
       </c>
       <c r="C22" t="n">
-        <v>17.23</v>
+        <v>22.07</v>
       </c>
       <c r="D22" t="n">
-        <v>4.94</v>
+        <v>4.87</v>
       </c>
       <c r="E22" t="n">
-        <v>11.2</v>
+        <v>10.35</v>
       </c>
       <c r="F22" t="n">
-        <v>7.41</v>
+        <v>0.51</v>
       </c>
       <c r="G22" t="n">
-        <v>23.7</v>
+        <v>21.77</v>
       </c>
       <c r="H22" t="n">
-        <v>4.46</v>
+        <v>1.49</v>
       </c>
       <c r="I22" t="n">
-        <v>14.24</v>
+        <v>21.07</v>
       </c>
       <c r="J22" t="n">
-        <v>4.94</v>
+        <v>4.87</v>
       </c>
       <c r="K22" t="n">
-        <v>11.2</v>
+        <v>10.35</v>
       </c>
       <c r="L22" t="n">
-        <v>7.41</v>
+        <v>0.51</v>
       </c>
       <c r="M22" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
+        <v>21.77</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O22" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S22" t="n">
+        <v>21.77</v>
+      </c>
       <c r="T22" t="n">
-        <v>7.41</v>
+        <v>0.51</v>
       </c>
       <c r="U22" t="n">
-        <v>23.7</v>
+        <v>21.77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>R22</t>
+          <t>rally22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.64</v>
+        <v>0.51</v>
       </c>
       <c r="C23" t="n">
-        <v>21.44</v>
+        <v>21.91</v>
       </c>
       <c r="D23" t="n">
-        <v>5.17</v>
+        <v>1.02</v>
       </c>
       <c r="E23" t="n">
-        <v>10.52</v>
+        <v>0.7</v>
       </c>
       <c r="F23" t="n">
-        <v>2.36</v>
+        <v>0.51</v>
       </c>
       <c r="G23" t="n">
-        <v>21.56</v>
+        <v>21.94</v>
       </c>
       <c r="H23" t="n">
-        <v>0.51</v>
+        <v>1.49</v>
       </c>
       <c r="I23" t="n">
-        <v>18.58</v>
+        <v>20.9</v>
       </c>
       <c r="J23" t="n">
-        <v>5.17</v>
+        <v>1.02</v>
       </c>
       <c r="K23" t="n">
-        <v>10.52</v>
+        <v>0.7</v>
       </c>
       <c r="L23" t="n">
-        <v>2.36</v>
+        <v>0.51</v>
       </c>
       <c r="M23" t="n">
-        <v>21.56</v>
+        <v>21.94</v>
       </c>
       <c r="N23" t="n">
-        <v>1.49</v>
+        <v>4.46</v>
       </c>
       <c r="O23" t="n">
-        <v>17.52</v>
+        <v>16.06</v>
       </c>
       <c r="P23" t="n">
-        <v>5.17</v>
+        <v>1.02</v>
       </c>
       <c r="Q23" t="n">
-        <v>10.52</v>
+        <v>0.7</v>
       </c>
       <c r="R23" t="n">
-        <v>2.36</v>
+        <v>0.51</v>
       </c>
       <c r="S23" t="n">
-        <v>21.56</v>
+        <v>21.94</v>
       </c>
       <c r="T23" t="n">
-        <v>2.36</v>
+        <v>0.51</v>
       </c>
       <c r="U23" t="n">
-        <v>21.56</v>
+        <v>21.94</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>R23</t>
+          <t>rally23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.46</v>
+        <v>0.51</v>
       </c>
       <c r="C24" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+        <v>21.88</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.79</v>
+      </c>
       <c r="F24" t="n">
         <v>0.51</v>
       </c>
       <c r="G24" t="n">
-        <v>21.94</v>
+        <v>22</v>
       </c>
       <c r="H24" t="n">
-        <v>5.06</v>
+        <v>1.49</v>
       </c>
       <c r="I24" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>20.88</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.79</v>
+      </c>
       <c r="L24" t="n">
         <v>0.51</v>
       </c>
       <c r="M24" t="n">
-        <v>21.94</v>
+        <v>22</v>
       </c>
       <c r="N24" t="n">
-        <v>2.96</v>
+        <v>4.46</v>
       </c>
       <c r="O24" t="n">
-        <v>15.76</v>
-      </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
+        <v>16.05</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.79</v>
+      </c>
       <c r="R24" t="n">
         <v>0.51</v>
       </c>
       <c r="S24" t="n">
-        <v>21.94</v>
+        <v>22</v>
       </c>
       <c r="T24" t="n">
         <v>0.51</v>
       </c>
       <c r="U24" t="n">
-        <v>21.94</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>R24</t>
+          <t>rally24</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0.51</v>
       </c>
       <c r="C25" t="n">
-        <v>21.59</v>
+        <v>21.75</v>
       </c>
       <c r="D25" t="n">
-        <v>3.16</v>
+        <v>5.3</v>
       </c>
       <c r="E25" t="n">
-        <v>11.69</v>
+        <v>11.61</v>
       </c>
       <c r="F25" t="n">
         <v>0.51</v>
       </c>
       <c r="G25" t="n">
-        <v>21.93</v>
+        <v>21.6</v>
       </c>
       <c r="H25" t="n">
         <v>1.49</v>
       </c>
       <c r="I25" t="n">
-        <v>20.51</v>
+        <v>20.76</v>
       </c>
       <c r="J25" t="n">
-        <v>3.16</v>
+        <v>5.3</v>
       </c>
       <c r="K25" t="n">
-        <v>11.69</v>
+        <v>11.61</v>
       </c>
       <c r="L25" t="n">
         <v>0.51</v>
       </c>
       <c r="M25" t="n">
-        <v>21.93</v>
+        <v>21.6</v>
       </c>
       <c r="N25" t="n">
-        <v>4.46</v>
+        <v>4.29</v>
       </c>
       <c r="O25" t="n">
-        <v>15.25</v>
+        <v>15.95</v>
       </c>
       <c r="P25" t="n">
-        <v>3.16</v>
+        <v>5.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.69</v>
+        <v>11.61</v>
       </c>
       <c r="R25" t="n">
         <v>0.51</v>
       </c>
       <c r="S25" t="n">
-        <v>21.93</v>
+        <v>21.6</v>
       </c>
       <c r="T25" t="n">
         <v>0.51</v>
       </c>
       <c r="U25" t="n">
-        <v>21.93</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>R25</t>
+          <t>rally25</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0.51</v>
       </c>
       <c r="C26" t="n">
-        <v>21.53</v>
+        <v>21.57</v>
       </c>
       <c r="D26" t="n">
-        <v>4.34</v>
+        <v>1.02</v>
       </c>
       <c r="E26" t="n">
-        <v>11.22</v>
+        <v>0.66</v>
       </c>
       <c r="F26" t="n">
         <v>0.51</v>
       </c>
       <c r="G26" t="n">
-        <v>21.42</v>
+        <v>21.8</v>
       </c>
       <c r="H26" t="n">
         <v>1.49</v>
       </c>
       <c r="I26" t="n">
-        <v>20.48</v>
+        <v>20.58</v>
       </c>
       <c r="J26" t="n">
-        <v>4.34</v>
+        <v>1.02</v>
       </c>
       <c r="K26" t="n">
-        <v>11.22</v>
+        <v>0.66</v>
       </c>
       <c r="L26" t="n">
         <v>0.51</v>
       </c>
       <c r="M26" t="n">
-        <v>21.42</v>
+        <v>21.8</v>
       </c>
       <c r="N26" t="n">
-        <v>4.46</v>
+        <v>4.29</v>
       </c>
       <c r="O26" t="n">
-        <v>15.42</v>
+        <v>15.78</v>
       </c>
       <c r="P26" t="n">
-        <v>4.34</v>
+        <v>1.02</v>
       </c>
       <c r="Q26" t="n">
-        <v>11.22</v>
+        <v>0.66</v>
       </c>
       <c r="R26" t="n">
         <v>0.51</v>
       </c>
       <c r="S26" t="n">
-        <v>21.42</v>
+        <v>21.8</v>
       </c>
       <c r="T26" t="n">
         <v>0.51</v>
       </c>
       <c r="U26" t="n">
-        <v>21.42</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>R26</t>
+          <t>rally26</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0.51</v>
       </c>
       <c r="C27" t="n">
-        <v>21.58</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+        <v>21.73</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.68</v>
+      </c>
       <c r="F27" t="n">
-        <v>0.2</v>
+        <v>0.51</v>
       </c>
       <c r="G27" t="n">
-        <v>21.34</v>
+        <v>22.12</v>
       </c>
       <c r="H27" t="n">
         <v>1.49</v>
       </c>
       <c r="I27" t="n">
-        <v>20.46</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>20.7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.68</v>
+      </c>
       <c r="L27" t="n">
-        <v>0.2</v>
+        <v>0.51</v>
       </c>
       <c r="M27" t="n">
-        <v>21.34</v>
+        <v>22.12</v>
       </c>
       <c r="N27" t="n">
-        <v>4.46</v>
+        <v>4.29</v>
       </c>
       <c r="O27" t="n">
-        <v>15.06</v>
-      </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
+        <v>15.73</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.68</v>
+      </c>
       <c r="R27" t="n">
-        <v>0.2</v>
+        <v>0.51</v>
       </c>
       <c r="S27" t="n">
-        <v>21.34</v>
+        <v>22.12</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2</v>
+        <v>0.51</v>
       </c>
       <c r="U27" t="n">
-        <v>21.34</v>
+        <v>22.12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>R27</t>
+          <t>rally27</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0.51</v>
       </c>
       <c r="C28" t="n">
-        <v>21.46</v>
+        <v>21.57</v>
       </c>
       <c r="D28" t="n">
-        <v>4.46</v>
+        <v>4.42</v>
       </c>
       <c r="E28" t="n">
-        <v>11.08</v>
+        <v>11.38</v>
       </c>
       <c r="F28" t="n">
         <v>0.51</v>
       </c>
       <c r="G28" t="n">
-        <v>21.57</v>
+        <v>21.89</v>
       </c>
       <c r="H28" t="n">
         <v>1.49</v>
       </c>
       <c r="I28" t="n">
-        <v>20.38</v>
+        <v>20.48</v>
       </c>
       <c r="J28" t="n">
-        <v>4.46</v>
+        <v>4.42</v>
       </c>
       <c r="K28" t="n">
-        <v>11.08</v>
+        <v>11.38</v>
       </c>
       <c r="L28" t="n">
         <v>0.51</v>
       </c>
       <c r="M28" t="n">
-        <v>21.57</v>
+        <v>21.89</v>
       </c>
       <c r="N28" t="n">
         <v>4.46</v>
       </c>
       <c r="O28" t="n">
-        <v>15.2</v>
+        <v>15.21</v>
       </c>
       <c r="P28" t="n">
-        <v>4.46</v>
+        <v>4.42</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.08</v>
+        <v>11.38</v>
       </c>
       <c r="R28" t="n">
         <v>0.51</v>
       </c>
       <c r="S28" t="n">
-        <v>21.57</v>
+        <v>21.89</v>
       </c>
       <c r="T28" t="n">
         <v>0.51</v>
       </c>
       <c r="U28" t="n">
-        <v>21.57</v>
+        <v>21.89</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>R28</t>
+          <t>rally28</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0.51</v>
       </c>
       <c r="C29" t="n">
-        <v>21.86</v>
+        <v>21.84</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>0.19</v>
+        <v>0.51</v>
       </c>
       <c r="G29" t="n">
-        <v>21.89</v>
+        <v>21.73</v>
       </c>
       <c r="H29" t="n">
         <v>1.49</v>
       </c>
       <c r="I29" t="n">
-        <v>20.74</v>
+        <v>20.76</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0.19</v>
+        <v>0.51</v>
       </c>
       <c r="M29" t="n">
-        <v>21.89</v>
+        <v>21.73</v>
       </c>
       <c r="N29" t="n">
         <v>4.46</v>
       </c>
       <c r="O29" t="n">
-        <v>15.32</v>
+        <v>15.56</v>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>0.19</v>
+        <v>0.51</v>
       </c>
       <c r="S29" t="n">
-        <v>21.89</v>
+        <v>21.73</v>
       </c>
       <c r="T29" t="n">
-        <v>0.19</v>
+        <v>0.51</v>
       </c>
       <c r="U29" t="n">
-        <v>21.89</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>R29</t>
+          <t>rally29</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.4</v>
+        <v>7.23</v>
       </c>
       <c r="C30" t="n">
-        <v>23.74</v>
+        <v>17.23</v>
       </c>
       <c r="D30" t="n">
-        <v>7.23</v>
+        <v>4.94</v>
       </c>
       <c r="E30" t="n">
-        <v>3.34</v>
+        <v>11.2</v>
       </c>
       <c r="F30" t="n">
-        <v>7.23</v>
+        <v>7.41</v>
       </c>
       <c r="G30" t="n">
-        <v>23.64</v>
+        <v>23.7</v>
       </c>
       <c r="H30" t="n">
-        <v>7.23</v>
+        <v>4.46</v>
       </c>
       <c r="I30" t="n">
-        <v>21.13</v>
+        <v>14.24</v>
       </c>
       <c r="J30" t="n">
-        <v>7.23</v>
+        <v>4.94</v>
       </c>
       <c r="K30" t="n">
-        <v>3.34</v>
+        <v>11.2</v>
       </c>
       <c r="L30" t="n">
-        <v>7.23</v>
+        <v>7.41</v>
       </c>
       <c r="M30" t="n">
-        <v>23.64</v>
-      </c>
-      <c r="N30" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="O30" t="n">
-        <v>18.25</v>
-      </c>
-      <c r="P30" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="R30" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="S30" t="n">
-        <v>23.64</v>
-      </c>
+        <v>23.7</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="n">
-        <v>7.23</v>
+        <v>7.41</v>
       </c>
       <c r="U30" t="n">
-        <v>23.64</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>R30</t>
+          <t>rally30</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.4</v>
+        <v>4.46</v>
       </c>
       <c r="C31" t="n">
-        <v>23.72</v>
-      </c>
-      <c r="D31" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1.58</v>
-      </c>
+        <v>18.26</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>7.4</v>
+        <v>0.51</v>
       </c>
       <c r="G31" t="n">
-        <v>23.66</v>
+        <v>21.94</v>
       </c>
       <c r="H31" t="n">
-        <v>7.23</v>
+        <v>5.06</v>
       </c>
       <c r="I31" t="n">
-        <v>20.88</v>
-      </c>
-      <c r="J31" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1.58</v>
-      </c>
+        <v>15.57</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>7.4</v>
+        <v>0.51</v>
       </c>
       <c r="M31" t="n">
-        <v>23.66</v>
+        <v>21.94</v>
       </c>
       <c r="N31" t="n">
-        <v>4.46</v>
+        <v>2.96</v>
       </c>
       <c r="O31" t="n">
-        <v>17.76</v>
-      </c>
-      <c r="P31" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.58</v>
-      </c>
+        <v>15.76</v>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>7.4</v>
+        <v>0.51</v>
       </c>
       <c r="S31" t="n">
-        <v>23.66</v>
+        <v>21.94</v>
       </c>
       <c r="T31" t="n">
-        <v>7.4</v>
+        <v>0.51</v>
       </c>
       <c r="U31" t="n">
-        <v>23.66</v>
+        <v>21.94</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>R31</t>
+          <t>rally31</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2560,7 +2560,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>R32</t>
+          <t>rally32</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2627,7 +2627,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>R33</t>
+          <t>rally33</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2694,7 +2694,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>R34</t>
+          <t>rally34</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2761,7 +2761,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>R35</t>
+          <t>rally35</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2828,7 +2828,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>R36</t>
+          <t>rally36</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2895,7 +2895,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>R37</t>
+          <t>rally37</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2962,7 +2962,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>R38</t>
+          <t>rally38</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3029,7 +3029,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>R39</t>
+          <t>rally39</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3096,7 +3096,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>R40</t>
+          <t>rally40</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3158,6 +3158,4983 @@
       </c>
       <c r="U41" t="n">
         <v>23.5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>rally51</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C42" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="D42" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E42" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="F42" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="G42" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="H42" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="I42" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="J42" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K42" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="L42" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="M42" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O42" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="P42" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="R42" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="S42" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="T42" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="U42" t="n">
+        <v>23.36</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>rally52</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C43" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="G43" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="I43" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="K43" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="L43" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="M43" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="N43" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O43" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="R43" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="S43" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="T43" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="U43" t="n">
+        <v>18.55</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>rally53</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C44" t="n">
+        <v>23.62</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E44" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="F44" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="G44" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="H44" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="I44" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="K44" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="L44" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="M44" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O44" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="R44" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="S44" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="T44" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="U44" t="n">
+        <v>18.55</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>rally54</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C45" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="E45" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="F45" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="H45" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="I45" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="K45" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="L45" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="M45" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="N45" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O45" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="R45" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="T45" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="U45" t="n">
+        <v>23.68</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>rally55</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C46" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G46" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I46" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M46" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O46" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S46" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U46" t="n">
+        <v>21.65</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>rally56</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C47" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F47" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G47" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I47" t="n">
+        <v>21.03</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L47" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="M47" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="N47" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O47" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R47" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="T47" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="U47" t="n">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>rally57</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C48" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="E48" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G48" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="I48" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="K48" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="L48" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="M48" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O48" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="T48" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="U48" t="n">
+        <v>23.73</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>rally58</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C49" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E49" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="F49" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="G49" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="I49" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="K49" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="L49" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="M49" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="N49" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O49" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="S49" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="T49" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="U49" t="n">
+        <v>18.51</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>rally59</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C50" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="D50" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="G50" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="I50" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="J50" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L50" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="M50" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="N50" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="O50" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="P50" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="R50" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="S50" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="T50" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="U50" t="n">
+        <v>18.81</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>rally60</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C51" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G51" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I51" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M51" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="N51" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O51" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S51" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U51" t="n">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>rally61</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C52" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G52" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I52" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M52" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="N52" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O52" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S52" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U52" t="n">
+        <v>21.92</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>rally62</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="D53" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G53" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I53" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="J53" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M53" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="N53" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O53" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="P53" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S53" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U53" t="n">
+        <v>21.62</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>rally63</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C54" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G54" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I54" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M54" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="N54" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O54" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S54" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U54" t="n">
+        <v>21.74</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>rally64</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C55" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G55" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I55" t="n">
+        <v>20.82</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M55" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="N55" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O55" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S55" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U55" t="n">
+        <v>22.27</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>rally65</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C56" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="E56" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="F56" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="G56" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="H56" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="I56" t="n">
+        <v>15.26</v>
+      </c>
+      <c r="J56" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="K56" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="L56" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="M56" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O56" t="n">
+        <v>13.03</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="R56" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="S56" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="T56" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="U56" t="n">
+        <v>18.08</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>rally66</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C57" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="E57" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="F57" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="G57" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="H57" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="I57" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="K57" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="L57" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="M57" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="N57" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O57" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="R57" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="S57" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="T57" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="U57" t="n">
+        <v>19.35</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>rally67</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C58" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G58" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I58" t="n">
+        <v>20.77</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M58" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="N58" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O58" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S58" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U58" t="n">
+        <v>22.13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>rally68</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C59" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="E59" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G59" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="H59" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="I59" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="K59" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M59" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="N59" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O59" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S59" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U59" t="n">
+        <v>21.98</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>rally69</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C60" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="D60" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F60" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="G60" t="n">
+        <v>19.49</v>
+      </c>
+      <c r="H60" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="I60" t="n">
+        <v>16.71</v>
+      </c>
+      <c r="J60" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L60" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="M60" t="n">
+        <v>19.49</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="O60" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="P60" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R60" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="S60" t="n">
+        <v>19.49</v>
+      </c>
+      <c r="T60" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="U60" t="n">
+        <v>19.49</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>rally70</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C61" t="n">
+        <v>21.72</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G61" t="n">
+        <v>21.77</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I61" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M61" t="n">
+        <v>21.77</v>
+      </c>
+      <c r="N61" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O61" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S61" t="n">
+        <v>21.77</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U61" t="n">
+        <v>21.77</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>rally71</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C62" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G62" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I62" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M62" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="N62" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O62" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S62" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U62" t="n">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>rally72</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C63" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F63" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G63" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I63" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="L63" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="M63" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="N63" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O63" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R63" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="T63" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="U63" t="n">
+        <v>23.63</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>rally73</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C64" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E64" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G64" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="H64" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="I64" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="K64" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M64" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="N64" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="O64" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S64" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U64" t="n">
+        <v>21.94</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>rally74</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C65" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G65" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I65" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M65" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="N65" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O65" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S65" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U65" t="n">
+        <v>21.88</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>rally75</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C66" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G66" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I66" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M66" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="N66" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O66" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S66" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U66" t="n">
+        <v>21.78</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>rally76</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C67" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G67" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I67" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M67" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="N67" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O67" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S67" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U67" t="n">
+        <v>22.14</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>rally77</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C68" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G68" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I68" t="n">
+        <v>21.57</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M68" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="N68" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O68" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S68" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U68" t="n">
+        <v>22.18</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>rally78</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C69" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G69" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I69" t="n">
+        <v>20.97</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M69" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="N69" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O69" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S69" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U69" t="n">
+        <v>22.18</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>rally79</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C70" t="n">
+        <v>22.03</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G70" t="n">
+        <v>21.63</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I70" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M70" t="n">
+        <v>21.63</v>
+      </c>
+      <c r="N70" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="O70" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S70" t="n">
+        <v>21.63</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U70" t="n">
+        <v>21.63</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>rally80</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C71" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="D71" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E71" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="F71" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="G71" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="H71" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="I71" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="J71" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K71" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="L71" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="M71" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="N71" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="O71" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="P71" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="R71" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="S71" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="T71" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="U71" t="n">
+        <v>23.71</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>rally81</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C72" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G72" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I72" t="n">
+        <v>19.84</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M72" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O72" t="n">
+        <v>18.93</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S72" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U72" t="n">
+        <v>21.83</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>rally82</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C73" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G73" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I73" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M73" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="N73" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O73" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S73" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U73" t="n">
+        <v>22.19</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>rally83</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C74" t="n">
+        <v>22.32</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G74" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I74" t="n">
+        <v>21.23</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M74" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="N74" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O74" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S74" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U74" t="n">
+        <v>22.01</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>rally84</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C75" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G75" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I75" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M75" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="N75" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O75" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S75" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U75" t="n">
+        <v>21.91</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>rally85</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C76" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="D76" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F76" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G76" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="H76" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="I76" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="J76" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L76" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="M76" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="N76" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O76" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="P76" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R76" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="T76" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="U76" t="n">
+        <v>23.74</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>rally86</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C77" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="E77" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="F77" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="G77" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="H77" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="I77" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="J77" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="K77" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="L77" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="M77" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O77" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="R77" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="S77" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="T77" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="U77" t="n">
+        <v>19.31</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>rally87</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C78" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G78" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I78" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M78" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="N78" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O78" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S78" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U78" t="n">
+        <v>22.02</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>rally88</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C79" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G79" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I79" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M79" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="N79" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O79" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S79" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U79" t="n">
+        <v>21.85</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>rally89</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C80" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="E80" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F80" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="G80" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="H80" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="I80" t="n">
+        <v>15.36</v>
+      </c>
+      <c r="J80" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="K80" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="L80" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="M80" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="N80" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O80" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="R80" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="S80" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="T80" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="U80" t="n">
+        <v>18.16</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>rally90</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C81" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G81" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I81" t="n">
+        <v>21.16</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M81" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="N81" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O81" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S81" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U81" t="n">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>rally91</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C82" t="n">
+        <v>22.06</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G82" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I82" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M82" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="N82" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O82" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S82" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U82" t="n">
+        <v>21.83</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>rally92</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C83" t="n">
+        <v>23.61</v>
+      </c>
+      <c r="D83" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F83" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="G83" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="H83" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="I83" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="J83" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="L83" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="M83" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="N83" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O83" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="P83" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="R83" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="S83" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="T83" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="U83" t="n">
+        <v>18.83</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>rally93</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C84" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="D84" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F84" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="G84" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="H84" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="I84" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="J84" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L84" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="M84" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="N84" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="O84" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="P84" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R84" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="S84" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="T84" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="U84" t="n">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>rally94</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C85" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="D85" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="E85" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="F85" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="G85" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="H85" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="I85" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="J85" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="K85" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="L85" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="M85" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O85" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="R85" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="S85" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="T85" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="U85" t="n">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>rally95</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C86" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D86" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="I86" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="J86" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="O86" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="P86" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>rally96</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C87" t="n">
+        <v>23.66</v>
+      </c>
+      <c r="D87" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="I87" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="J87" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O87" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="P87" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>rally97</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C88" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F88" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="G88" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I88" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L88" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="M88" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="N88" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O88" t="n">
+        <v>18.91</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R88" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="S88" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="T88" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="U88" t="n">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>rally98</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C89" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F89" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="G89" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I89" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="L89" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="M89" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="N89" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O89" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="R89" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="S89" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="T89" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="U89" t="n">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>rally99</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C90" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G90" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I90" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M90" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="N90" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O90" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S90" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U90" t="n">
+        <v>22.13</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>rally100</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C91" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G91" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I91" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M91" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="N91" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O91" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S91" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U91" t="n">
+        <v>22.51</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>rally101</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C92" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I92" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O92" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="P92" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>rally102</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C93" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G93" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I93" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M93" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="N93" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O93" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S93" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U93" t="n">
+        <v>21.93</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>rally104</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C94" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G94" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I94" t="n">
+        <v>21.06</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M94" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="N94" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O94" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S94" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U94" t="n">
+        <v>22.09</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>rally105</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C95" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G95" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I95" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M95" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="N95" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O95" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S95" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U95" t="n">
+        <v>22.15</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>rally106</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C96" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="D96" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E96" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="F96" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="G96" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="H96" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="I96" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="J96" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K96" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="L96" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="M96" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="N96" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O96" t="n">
+        <v>20.69</v>
+      </c>
+      <c r="P96" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="R96" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="S96" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="T96" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="U96" t="n">
+        <v>23.54</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>rally107</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C97" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G97" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I97" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M97" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="N97" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O97" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S97" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U97" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>rally108</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C98" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G98" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I98" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M98" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="N98" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O98" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S98" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U98" t="n">
+        <v>21.92</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>rally109</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C99" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="D99" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F99" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="G99" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="H99" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="I99" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="J99" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="L99" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="M99" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="O99" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="P99" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R99" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="S99" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="T99" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="U99" t="n">
+        <v>15.29</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>rally110</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C100" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G100" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I100" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M100" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="N100" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O100" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S100" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U100" t="n">
+        <v>22.12</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>rally111</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C101" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="D101" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F101" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="G101" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="H101" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="I101" t="n">
+        <v>16.86</v>
+      </c>
+      <c r="J101" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L101" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="M101" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="N101" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O101" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="P101" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R101" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="S101" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="T101" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="U101" t="n">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>rally112</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C102" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="E102" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="F102" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G102" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="H102" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="I102" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J102" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K102" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="L102" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="M102" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O102" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="R102" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="T102" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="U102" t="n">
+        <v>23.53</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>rally113</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C103" t="n">
+        <v>19.56</v>
+      </c>
+      <c r="D103" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F103" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="G103" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="H103" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="I103" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="J103" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="L103" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="M103" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="N103" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O103" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="P103" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="R103" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="S103" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="T103" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="U103" t="n">
+        <v>23.76</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>rally114</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C104" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G104" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I104" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M104" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="N104" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O104" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="P104" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S104" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U104" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>rally115</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C105" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G105" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I105" t="n">
+        <v>21.57</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M105" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="N105" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O105" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="P105" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S105" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U105" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>rally117</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C106" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G106" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I106" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M106" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="N106" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O106" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S106" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="T106" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U106" t="n">
+        <v>22.09</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>rally118</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C107" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E107" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F107" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G107" t="n">
+        <v>23.67</v>
+      </c>
+      <c r="H107" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="I107" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="J107" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K107" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="L107" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="M107" t="n">
+        <v>23.67</v>
+      </c>
+      <c r="N107" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O107" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="P107" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="R107" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>23.67</v>
+      </c>
+      <c r="T107" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="U107" t="n">
+        <v>23.67</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>rally119</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C108" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="D108" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E108" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="F108" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="G108" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="H108" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="I108" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J108" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K108" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="L108" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="M108" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="N108" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="O108" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="P108" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="R108" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="S108" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="T108" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="U108" t="n">
+        <v>23.14</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>rally120</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C109" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="D109" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G109" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I109" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="J109" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M109" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="N109" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O109" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="P109" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S109" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U109" t="n">
+        <v>22.55</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>rally121</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C110" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G110" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I110" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M110" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="N110" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O110" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="P110" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S110" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U110" t="n">
+        <v>21.69</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>rally122</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C111" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G111" t="n">
+        <v>22.32</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I111" t="n">
+        <v>20.78</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M111" t="n">
+        <v>22.32</v>
+      </c>
+      <c r="N111" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O111" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="P111" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S111" t="n">
+        <v>22.32</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U111" t="n">
+        <v>22.32</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>rally123</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C112" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="E112" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F112" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="G112" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="H112" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="I112" t="n">
+        <v>17.07</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="K112" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="L112" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="M112" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="N112" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O112" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="P112" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="R112" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="S112" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="T112" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="U112" t="n">
+        <v>17.58</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>rally124</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="C113" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="D113" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E113" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="G113" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="H113" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I113" t="n">
+        <v>19.94</v>
+      </c>
+      <c r="J113" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K113" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="L113" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="M113" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="N113" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="O113" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="P113" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="R113" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="S113" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="T113" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="U113" t="n">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>rally125</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C114" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G114" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I114" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M114" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="N114" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O114" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="P114" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S114" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U114" t="n">
+        <v>22.16</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>rally126</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C115" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G115" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I115" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M115" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="N115" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O115" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="P115" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S115" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U115" t="n">
+        <v>22.25</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>rally127</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C116" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="D116" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="F116" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G116" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="H116" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="I116" t="n">
+        <v>21.81</v>
+      </c>
+      <c r="J116" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K116" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="L116" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="M116" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="N116" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O116" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="P116" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="R116" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="S116" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="T116" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="U116" t="n">
+        <v>23.52</v>
       </c>
     </row>
   </sheetData>
